--- a/3_Backcasting analysis/analysis/Selection of risks and associated likelihood.xlsx
+++ b/3_Backcasting analysis/analysis/Selection of risks and associated likelihood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/3_Backcasting analysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1652" documentId="13_ncr:1_{6CDB6784-CF0F-4546-AE62-A0BDC9273E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92B197B-8AFA-4883-A2D1-45C9976FF4CF}"/>
+  <xr:revisionPtr revIDLastSave="1680" documentId="13_ncr:1_{6CDB6784-CF0F-4546-AE62-A0BDC9273E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F103A63B-EAC8-4786-B1FA-6A8EE6FD651F}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="799" xr2:uid="{959A7320-51B1-1040-BF09-D955BFA7AAAD}"/>
+    <workbookView xWindow="57480" yWindow="-300" windowWidth="29040" windowHeight="17520" tabRatio="799" xr2:uid="{959A7320-51B1-1040-BF09-D955BFA7AAAD}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="21" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="613">
   <si>
     <t>1. End poverty in all its forms everywhere</t>
   </si>
@@ -1867,9 +1867,6 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t>Climatic</t>
   </si>
   <si>
@@ -1898,6 +1895,12 @@
   </si>
   <si>
     <t>Forward looking</t>
+  </si>
+  <si>
+    <t>mean backward</t>
+  </si>
+  <si>
+    <t>mean forward</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2079,6 +2082,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2097,7 +2106,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2206,6 +2215,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -2532,14 +2543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37379C18-E202-4D04-B077-BEF648162FCA}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.92578125" style="48" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="18.92578125" customWidth="1"/>
@@ -2553,28 +2565,28 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C1" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>608</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
@@ -3186,28 +3198,28 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="E20" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="H20" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="I20" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="J20" s="35" t="s">
         <v>608</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
@@ -3819,33 +3831,33 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C43" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="E43" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="F43" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="G43" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="H43" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="I43" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="J43" s="35" t="s">
         <v>608</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B44" s="48">
         <v>-5</v>
@@ -3885,7 +3897,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B45" s="48">
         <v>-4</v>
@@ -3925,7 +3937,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B46" s="48">
         <v>-3</v>
@@ -3965,7 +3977,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B47" s="48">
         <v>-2</v>
@@ -4005,7 +4017,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B48" s="48">
         <v>-1</v>
@@ -4043,246 +4055,291 @@
         <v>0.65370024224777301</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B49" s="48" t="s">
-        <v>601</v>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>610</v>
+      </c>
+      <c r="B49" s="48">
+        <v>1</v>
       </c>
       <c r="C49" s="49">
-        <f>CORREL(C2:C17,C26:C41)</f>
-        <v>-0.28448231598342549</v>
-      </c>
-      <c r="D49" s="49">
-        <f t="shared" ref="D49:J49" si="8">CORREL(D2:D17,D26:D41)</f>
-        <v>8.8888080504179717E-3</v>
-      </c>
-      <c r="E49" s="49">
-        <f t="shared" si="8"/>
-        <v>0.2543524747905086</v>
-      </c>
-      <c r="F49" s="49">
-        <f t="shared" si="8"/>
-        <v>-0.10827375847295445</v>
-      </c>
-      <c r="G49" s="49">
-        <f t="shared" si="8"/>
-        <v>-7.7658242512718967E-2</v>
-      </c>
-      <c r="H49" s="49">
-        <f t="shared" si="8"/>
-        <v>-0.20808136324016316</v>
-      </c>
-      <c r="I49" s="49">
-        <f t="shared" si="8"/>
-        <v>0.53100533964150465</v>
-      </c>
-      <c r="J49" s="49">
-        <f t="shared" si="8"/>
-        <v>0.63289790633091381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>611</v>
-      </c>
-      <c r="B50" s="48">
-        <v>1</v>
-      </c>
-      <c r="C50" s="49">
         <f>CORREL(C2:C16,C27:C41)</f>
         <v>-3.5295682184409767E-2</v>
       </c>
-      <c r="D50" s="49">
-        <f t="shared" ref="D50:J50" si="9">CORREL(D2:D16,D27:D41)</f>
+      <c r="D49" s="49">
+        <f>CORREL(D2:D16,D27:D41)</f>
         <v>1.0460068829239283E-2</v>
       </c>
-      <c r="E50" s="49">
-        <f t="shared" si="9"/>
+      <c r="E49" s="49">
+        <f>CORREL(E2:E16,E27:E41)</f>
         <v>-7.7784530925746345E-2</v>
       </c>
-      <c r="F50" s="49">
-        <f t="shared" si="9"/>
+      <c r="F49" s="49">
+        <f>CORREL(F2:F16,F27:F41)</f>
         <v>-8.6600998610271915E-2</v>
       </c>
-      <c r="G50" s="49">
-        <f t="shared" si="9"/>
+      <c r="G49" s="49">
+        <f>CORREL(G2:G16,G27:G41)</f>
         <v>-6.5882707316797032E-2</v>
       </c>
-      <c r="H50" s="49">
-        <f t="shared" si="9"/>
+      <c r="H49" s="49">
+        <f>CORREL(H2:H16,H27:H41)</f>
         <v>-0.26953833059991372</v>
       </c>
-      <c r="I50" s="49">
-        <f t="shared" si="9"/>
+      <c r="I49" s="49">
+        <f>CORREL(I2:I16,I27:I41)</f>
         <v>0.62160987657835465</v>
       </c>
-      <c r="J50" s="49">
-        <f t="shared" si="9"/>
+      <c r="J49" s="49">
+        <f>CORREL(J2:J16,J27:J41)</f>
         <v>0.68363387162173495</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>611</v>
-      </c>
-      <c r="B51" s="48">
-        <v>2</v>
-      </c>
-      <c r="C51" s="49">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="48">
+        <v>2</v>
+      </c>
+      <c r="C50" s="49">
         <f>CORREL(C2:C15,C28:C41)</f>
         <v>0.24631958114871222</v>
       </c>
-      <c r="D51" s="49">
-        <f t="shared" ref="D51:J51" si="10">CORREL(D2:D15,D28:D41)</f>
+      <c r="D50" s="49">
+        <f>CORREL(D2:D15,D28:D41)</f>
         <v>-9.8633098286377008E-2</v>
       </c>
-      <c r="E51" s="49">
-        <f t="shared" si="10"/>
+      <c r="E50" s="49">
+        <f>CORREL(E2:E15,E28:E41)</f>
         <v>-0.16335988962185213</v>
       </c>
-      <c r="F51" s="49">
-        <f t="shared" si="10"/>
+      <c r="F50" s="49">
+        <f>CORREL(F2:F15,F28:F41)</f>
         <v>-3.0413549278233306E-2</v>
       </c>
-      <c r="G51" s="49">
-        <f t="shared" si="10"/>
+      <c r="G50" s="49">
+        <f>CORREL(G2:G15,G28:G41)</f>
         <v>-0.56125825171827814</v>
       </c>
-      <c r="H51" s="49">
-        <f t="shared" si="10"/>
+      <c r="H50" s="49">
+        <f>CORREL(H2:H15,H28:H41)</f>
         <v>-0.36007357799075979</v>
       </c>
-      <c r="I51" s="49">
-        <f t="shared" si="10"/>
+      <c r="I50" s="49">
+        <f>CORREL(I2:I15,I28:I41)</f>
         <v>0.48649386669407435</v>
       </c>
-      <c r="J51" s="49">
-        <f t="shared" si="10"/>
+      <c r="J50" s="49">
+        <f>CORREL(J2:J15,J28:J41)</f>
         <v>0.76576212202791194</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>611</v>
-      </c>
-      <c r="B52" s="48">
-        <v>3</v>
-      </c>
-      <c r="C52" s="49">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>610</v>
+      </c>
+      <c r="B51" s="48">
+        <v>3</v>
+      </c>
+      <c r="C51" s="49">
         <f>CORREL(C2:C14,C29:C41)</f>
         <v>0.19733155408510475</v>
       </c>
-      <c r="D52" s="49">
-        <f t="shared" ref="D52:J52" si="11">CORREL(D2:D14,D29:D41)</f>
+      <c r="D51" s="49">
+        <f>CORREL(D2:D14,D29:D41)</f>
         <v>-7.9884003134290976E-2</v>
       </c>
-      <c r="E52" s="49">
-        <f t="shared" si="11"/>
+      <c r="E51" s="49">
+        <f>CORREL(E2:E14,E29:E41)</f>
         <v>-0.45703042112842107</v>
       </c>
-      <c r="F52" s="49">
-        <f t="shared" si="11"/>
+      <c r="F51" s="49">
+        <f>CORREL(F2:F14,F29:F41)</f>
         <v>0.59650165095675989</v>
       </c>
-      <c r="G52" s="49">
-        <f t="shared" si="11"/>
+      <c r="G51" s="49">
+        <f>CORREL(G2:G14,G29:G41)</f>
         <v>-0.56172859398338648</v>
       </c>
-      <c r="H52" s="49">
-        <f t="shared" si="11"/>
+      <c r="H51" s="49">
+        <f>CORREL(H2:H14,H29:H41)</f>
         <v>-5.2841098607667135E-3</v>
       </c>
-      <c r="I52" s="49">
-        <f t="shared" si="11"/>
+      <c r="I51" s="49">
+        <f>CORREL(I2:I14,I29:I41)</f>
         <v>0.28296821833093388</v>
       </c>
-      <c r="J52" s="49">
-        <f t="shared" si="11"/>
+      <c r="J51" s="49">
+        <f>CORREL(J2:J14,J29:J41)</f>
         <v>0.77609123889088016</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>611</v>
-      </c>
-      <c r="B53" s="48">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>610</v>
+      </c>
+      <c r="B52" s="48">
         <v>4</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C52" s="49">
         <f>CORREL(C2:C13,C30:C41)</f>
         <v>0.45485084473874893</v>
       </c>
-      <c r="D53" s="49">
-        <f t="shared" ref="D53:J53" si="12">CORREL(D2:D13,D30:D41)</f>
+      <c r="D52" s="49">
+        <f>CORREL(D2:D13,D30:D41)</f>
         <v>-0.32450949545858121</v>
       </c>
-      <c r="E53" s="49">
-        <f t="shared" si="12"/>
+      <c r="E52" s="49">
+        <f>CORREL(E2:E13,E30:E41)</f>
         <v>-1.6396927819411083E-3</v>
       </c>
-      <c r="F53" s="49">
-        <f t="shared" si="12"/>
+      <c r="F52" s="49">
+        <f>CORREL(F2:F13,F30:F41)</f>
         <v>1.6475020588075571E-2</v>
       </c>
-      <c r="G53" s="49">
-        <f t="shared" si="12"/>
+      <c r="G52" s="49">
+        <f>CORREL(G2:G13,G30:G41)</f>
         <v>-0.39792151585616281</v>
       </c>
-      <c r="H53" s="49">
-        <f t="shared" si="12"/>
+      <c r="H52" s="49">
+        <f>CORREL(H2:H13,H30:H41)</f>
         <v>-5.8146894209077551E-2</v>
       </c>
-      <c r="I53" s="49">
-        <f t="shared" si="12"/>
+      <c r="I52" s="49">
+        <f>CORREL(I2:I13,I30:I41)</f>
         <v>-0.1054498327876407</v>
       </c>
-      <c r="J53" s="49">
-        <f t="shared" si="12"/>
+      <c r="J52" s="49">
+        <f>CORREL(J2:J13,J30:J41)</f>
         <v>0.67028190427207934</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>611</v>
-      </c>
-      <c r="B54" s="48">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>610</v>
+      </c>
+      <c r="B53" s="48">
         <v>5</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C53" s="49">
         <f>CORREL(C2:C12,C31:C41)</f>
         <v>0.43290453261524403</v>
       </c>
-      <c r="D54" s="49">
-        <f t="shared" ref="D54:J54" si="13">CORREL(D2:D12,D31:D41)</f>
+      <c r="D53" s="49">
+        <f>CORREL(D2:D12,D31:D41)</f>
         <v>-0.39265333345224568</v>
       </c>
-      <c r="E54" s="49">
-        <f t="shared" si="13"/>
+      <c r="E53" s="49">
+        <f>CORREL(E2:E12,E31:E41)</f>
         <v>0.11975066551096507</v>
       </c>
-      <c r="F54" s="49">
-        <f t="shared" si="13"/>
+      <c r="F53" s="49">
+        <f>CORREL(F2:F12,F31:F41)</f>
         <v>0.2581391939233797</v>
       </c>
-      <c r="G54" s="49">
-        <f t="shared" si="13"/>
+      <c r="G53" s="49">
+        <f>CORREL(G2:G12,G31:G41)</f>
         <v>-0.18033351964274041</v>
       </c>
-      <c r="H54" s="49">
-        <f t="shared" si="13"/>
+      <c r="H53" s="49">
+        <f>CORREL(H2:H12,H31:H41)</f>
         <v>-0.44119055048589489</v>
       </c>
-      <c r="I54" s="49">
-        <f t="shared" si="13"/>
+      <c r="I53" s="49">
+        <f>CORREL(I2:I12,I31:I41)</f>
         <v>-0.34318334835464442</v>
       </c>
-      <c r="J54" s="49">
-        <f t="shared" si="13"/>
+      <c r="J53" s="49">
+        <f>CORREL(J2:J12,J31:J41)</f>
         <v>0.64870361127453346</v>
       </c>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B56" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="C56" s="51">
+        <f>AVERAGE(C44:C48)</f>
+        <v>-0.41285508126574288</v>
+      </c>
+      <c r="D56" s="51">
+        <f>AVERAGE(D44:D48)</f>
+        <v>-0.39246165016931778</v>
+      </c>
+      <c r="E56" s="50">
+        <f>AVERAGE(E44:E48)</f>
+        <v>7.5837316878558186E-2</v>
+      </c>
+      <c r="F56" s="50">
+        <f>AVERAGE(F44:F48)</f>
+        <v>-0.17998717767742828</v>
+      </c>
+      <c r="G56" s="50">
+        <f>AVERAGE(G44:G48)</f>
+        <v>-0.21119081628966291</v>
+      </c>
+      <c r="H56" s="50">
+        <f>AVERAGE(H44:H48)</f>
+        <v>-0.16609189573742394</v>
+      </c>
+      <c r="I56" s="50">
+        <f>AVERAGE(I44:I48)</f>
+        <v>0.45298323851778832</v>
+      </c>
+      <c r="J56" s="51">
+        <f>AVERAGE(J44:J48)</f>
+        <v>0.54586047125461579</v>
+      </c>
+      <c r="K56" s="50">
+        <f>AVERAGE(C56:J56)</f>
+        <v>-3.5988199311076691E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B57" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="C57" s="50">
+        <f>AVERAGE(C49:C53)</f>
+        <v>0.25922216608068005</v>
+      </c>
+      <c r="D57" s="50">
+        <f t="shared" ref="D57:J57" si="8">AVERAGE(D49:D53)</f>
+        <v>-0.1770439723004511</v>
+      </c>
+      <c r="E57" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.11601277378939914</v>
+      </c>
+      <c r="F57" s="50">
+        <f t="shared" si="8"/>
+        <v>0.15082026351594199</v>
+      </c>
+      <c r="G57" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.35342491770347301</v>
+      </c>
+      <c r="H57" s="50">
+        <f t="shared" si="8"/>
+        <v>-0.22684669262928253</v>
+      </c>
+      <c r="I57" s="50">
+        <f t="shared" si="8"/>
+        <v>0.18848775609221552</v>
+      </c>
+      <c r="J57" s="51">
+        <f t="shared" si="8"/>
+        <v>0.70889454961742793</v>
+      </c>
+      <c r="K57" s="50">
+        <f>AVERAGE(C57:J57)</f>
+        <v>5.4262047360457463E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C44:J54">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C44:J53">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4461,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -4554,7 +4611,7 @@
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
     </row>
-    <row r="13" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -4596,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4731,7 +4788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="48.9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" ht="60.9" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -5096,7 +5153,7 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="72.900000000000006" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" ht="84.9" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
@@ -5121,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="96.9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="108.9" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
         <v>44</v>
       </c>
@@ -6547,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
@@ -6561,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" ht="72" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>156</v>
       </c>
@@ -6828,7 +6885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" ht="48" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>113</v>
       </c>
@@ -7472,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
@@ -7612,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="48" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>110</v>
       </c>
@@ -8570,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="72" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -8830,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="48" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>161</v>
       </c>
@@ -9605,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="48" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>116</v>
       </c>
@@ -11216,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>253</v>
       </c>
@@ -13268,7 +13325,7 @@
         <v>3.6459350953496101</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>312</v>
       </c>
@@ -26708,7 +26765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="24.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>425</v>
       </c>
@@ -27491,7 +27548,7 @@
         <v>2.7025084922916101</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="24.9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" ht="36.9" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>450</v>
       </c>

--- a/3_Backcasting analysis/analysis/Selection of risks and associated likelihood.xlsx
+++ b/3_Backcasting analysis/analysis/Selection of risks and associated likelihood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/3_Backcasting analysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2804" documentId="13_ncr:1_{6CDB6784-CF0F-4546-AE62-A0BDC9273E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE96666-72D0-4757-9010-5DF02630D10C}"/>
+  <xr:revisionPtr revIDLastSave="2806" documentId="13_ncr:1_{6CDB6784-CF0F-4546-AE62-A0BDC9273E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D51ABC-9A35-4235-BAFE-4B40B0AF8B09}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="799" xr2:uid="{959A7320-51B1-1040-BF09-D955BFA7AAAD}"/>
   </bookViews>
@@ -2620,8 +2620,8 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G10" s="2">
         <f>'2014'!H46</f>
-        <v>3.3785594639865968</v>
+        <v>3.1809045226130621</v>
       </c>
       <c r="H10" s="2">
         <f>'2014'!I46</f>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="G44" s="3">
         <f>CORREL(G2:G17,G21:G36)</f>
-        <v>-0.43246506487897191</v>
+        <v>-0.4427784293962993</v>
       </c>
       <c r="H44" s="3">
         <f>CORREL(H2:H17,H21:H36)</f>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G45" s="3">
         <f>CORREL(G2:G17,G22:G37)</f>
-        <v>-0.36431998282941108</v>
+        <v>-0.35240066954757249</v>
       </c>
       <c r="H45" s="3">
         <f>CORREL(H2:H17,H22:H37)</f>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="G46" s="3">
         <f>CORREL(G2:G17,G23:G38)</f>
-        <v>-0.41551215356801496</v>
+        <v>-0.41182579399509167</v>
       </c>
       <c r="H46" s="3">
         <f>CORREL(H2:H17,H23:H38)</f>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="G47" s="3">
         <f>CORREL(G2:G17,G24:G39)</f>
-        <v>8.5038548459529462E-2</v>
+        <v>8.730694476936568E-2</v>
       </c>
       <c r="H47" s="3">
         <f>CORREL(H2:H17,H24:H39)</f>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="G48" s="3">
         <f>CORREL(G2:G17,G25:G40)</f>
-        <v>0.26106008261566516</v>
+        <v>0.27829952442367312</v>
       </c>
       <c r="H48" s="3">
         <f>CORREL(H2:H17,H25:H40)</f>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G49" s="3">
         <f>CORREL(G2:G16,G27:G41)</f>
-        <v>-0.23130219396004947</v>
+        <v>-0.24341476801093154</v>
       </c>
       <c r="H49" s="3">
         <f>CORREL(H2:H16,H27:H41)</f>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="G50" s="3">
         <f>CORREL(G2:G15,G28:G41)</f>
-        <v>-0.49846368026054566</v>
+        <v>-0.49667160788701709</v>
       </c>
       <c r="H50" s="3">
         <f>CORREL(H2:H15,H28:H41)</f>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="G51" s="3">
         <f>CORREL(G2:G14,G29:G41)</f>
-        <v>-0.46349999785856627</v>
+        <v>-0.44839814119934723</v>
       </c>
       <c r="H51" s="3">
         <f>CORREL(H2:H14,H29:H41)</f>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G52" s="3">
         <f>CORREL(G2:G13,G30:G41)</f>
-        <v>-0.47312892292265246</v>
+        <v>-0.46188791029751769</v>
       </c>
       <c r="H52" s="3">
         <f>CORREL(H2:H13,H30:H41)</f>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="G53" s="3">
         <f>CORREL(G2:G12,G31:G41)</f>
-        <v>-8.930838856860053E-2</v>
+        <v>-1.5138876030639263E-2</v>
       </c>
       <c r="H53" s="3">
         <f>CORREL(H2:H12,H31:H41)</f>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="G56" s="4">
         <f t="shared" si="3"/>
-        <v>-0.17323971404024066</v>
+        <v>-0.16827968474918495</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="3"/>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="K56" s="4">
         <f>AVERAGE(C56:J56)</f>
-        <v>-0.1284343948718501</v>
+        <v>-0.12781439121046814</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="G57" s="4">
         <f t="shared" si="4"/>
-        <v>-0.35114063671408291</v>
+        <v>-0.33310226068509052</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="4"/>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="K57" s="4">
         <f>AVERAGE(C57:J57)</f>
-        <v>4.062606020043269E-4</v>
+        <v>2.6610576056283752E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4436,8 +4436,8 @@
   </sheetPr>
   <dimension ref="A1:L533"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11356,9 +11356,7 @@
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
-      <c r="I315" s="2">
-        <v>1</v>
-      </c>
+      <c r="I315" s="2"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
@@ -22708,8 +22706,8 @@
   </sheetPr>
   <dimension ref="A2:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23349,9 +23347,6 @@
       <c r="C34" s="10">
         <v>3.9715242881072004</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
@@ -23410,7 +23405,7 @@
       </c>
       <c r="H38" s="2">
         <f t="shared" si="3"/>
-        <v>3.9715242881072004</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="3"/>
@@ -23560,7 +23555,7 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" si="5"/>
-        <v>13.514237855946387</v>
+        <v>9.5427135678391863</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="5"/>
@@ -23594,7 +23589,7 @@
       </c>
       <c r="H46" s="2">
         <f t="shared" si="6"/>
-        <v>3.3785594639865968</v>
+        <v>3.1809045226130621</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="6"/>
@@ -37488,8 +37483,8 @@
   </sheetPr>
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
